--- a/data/trans_bre/P44_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P44_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,93%</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-25,81%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-22,49%</t>
+          <t>-13,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-29,9%</t>
+          <t>-1,4%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-14,87%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,43%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 3,7</t>
+          <t>-4,26; 2,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 5,26</t>
+          <t>-2,59; 1,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 8,54</t>
+          <t>-1,89; 1,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 5,41</t>
+          <t>-2,97; 1,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,03; 11,98</t>
+          <t>-1,69; 1,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,23; 25,53</t>
+          <t>-49,17; 50,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 52,79</t>
+          <t>-50,24; 54,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 23,95</t>
+          <t>-52,28; 104,22</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-60,31; 69,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-69,54; 208,86</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>62,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 11,19</t>
+          <t>-2,81; 4,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 14,47</t>
+          <t>-2,78; 4,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 18,7</t>
+          <t>-1,03; 4,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 13,84</t>
+          <t>-1,88; 2,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 31,97</t>
+          <t>-0,86; 1,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 65,43</t>
+          <t>-31,06; 74,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 123,55</t>
+          <t>-36,47; 116,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 108,82</t>
+          <t>-25,55; 248,15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-43,14; 157,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-65,29; 573,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>63,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,68%</t>
+          <t>123,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>592,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>232,72%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 27,29</t>
+          <t>-2,22; 8,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 27,97</t>
+          <t>-4,47; 7,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 30,93</t>
+          <t>-1,49; 6,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 24,38</t>
+          <t>0,51; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 317,43</t>
+          <t>-0,53; 3,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,75; 338,77</t>
+          <t>-36,91; 543,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,35; 429,17</t>
+          <t>-59,6; 412,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-50,2; 915,33</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>36,3%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 5,88</t>
+          <t>-2,02; 2,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 6,14</t>
+          <t>-1,62; 2,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 10,43</t>
+          <t>-0,49; 2,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 5,25</t>
+          <t>-1,08; 1,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 19,02</t>
+          <t>-0,74; 1,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 25,57</t>
+          <t>-25,85; 40,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,89; 56,65</t>
+          <t>-27,43; 59,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,12; 26,76</t>
+          <t>-17,27; 119,29</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-29,6; 97,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-45,96; 188,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P44_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P44_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-8,75%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-13,1%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-14,87%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-7,43%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.225793225050849</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.975697562566491</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.223756995434492</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-12.19613870712226</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-5.632270079961627</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2192108960329991</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2590243224271037</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1841244123613724</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.3229159561287676</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.3353189475655466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 2,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 1,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 1,64</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 1,3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 1,29</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-49,17; 50,59</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-50,24; 54,87</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-52,28; 104,22</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-60,31; 69,73</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-69,54; 208,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-24.55157682154857</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-22.19088367795716</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-24.82899158000002</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-34.2322684647766</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-22.07086310866801</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4736986539607933</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5644004268090627</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6116031918548631</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.6375010783411317</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.7596788578567161</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.259648191661077</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.398432722744017</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.157715105131633</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.547390152220602</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6.168967330119121</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1729346739831996</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2722255694905251</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4748065299995741</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.2446053446717728</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.031602953735793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19,93%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>62,46%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>29,62%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>20,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 4,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 4,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 4,05</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 2,89</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 1,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-31,06; 74,78</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-36,47; 116,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-25,55; 248,15</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-43,14; 157,66</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-65,29; 573,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.279713382024068</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.013424499615018</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.196019837837365</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.08808674253489024</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.907025239860295</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.0797500784543472</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.02950221318636683</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2239290042059472</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.003848207783622528</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2023752992199223</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>63,82%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>36,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>123,03%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>592,36%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>232,72%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.16673401658246</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-16.5485554995501</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-12.53729132992655</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-15.05130426116016</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-14.69511639580402</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3583960622105135</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3832937014174426</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3992033909340387</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4644075855976454</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.7940108618104305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 8,24</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 7,28</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 6,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 5,76</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 3,97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-36,91; 543,93</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-59,6; 412,77</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-50,2; 915,33</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.05429417045633</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.11851377361709</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.66395612730733</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>15.63680697499367</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>7.354439581748499</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3703378249516124</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6527231352846389</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.440850099044128</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.290639884871133</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.693044737016792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,225 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,99%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>36,3%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>14,5%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.616516810393566</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.550933406692118</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.024871069609851</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.036856732350275</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>4.624319731030034</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.310143337555456</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1952815513820729</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4012690174470064</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2933879495774875</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.5763433272579677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 2,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 2,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 2,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 1,71</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 1,17</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-25,85; 40,91</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-27,43; 59,12</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-17,27; 119,29</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-29,6; 97,6</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-45,96; 188,69</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-21.75834602495039</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-21.23572054261781</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.62482733662129</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-39.82781399694245</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-23.62804611217758</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5407521477534764</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5519750804841448</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6362788266420558</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>27.39064575182942</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>30.11931175225192</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>34.07818965915337</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>23.58892970641953</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>22.55366605262397</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.003125434651603</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>3.665871373175611</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.297178194588044</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.227901288617114</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.945710017520836</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.214592786621782</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.746186628650565</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-3.059930286966646</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1097813147413144</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.09430312948432019</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04789417700511796</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1978102676464458</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.2366662134550956</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-14.52183026120731</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.56055662080202</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-10.02131525026913</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-18.55934026454394</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-12.2026628292286</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.324524991406991</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3360891605883221</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2986228725381525</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4827907128985234</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.6213874372407676</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.617525506445709</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.001987532955003</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.49887861771063</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.659821080523496</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.584169136974285</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1516708446371195</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.340201930657011</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.681903067038187</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2317844713054765</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.7410387114042244</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1105,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
